--- a/Lógica e Programação/Provas/M2/Criterio Avaliação.xlsx
+++ b/Lógica e Programação/Provas/M2/Criterio Avaliação.xlsx
@@ -5,22 +5,36 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alunocmc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alunocmc\Downloads\UMC\Lógica e Programação\Provas\M2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4703E9-07A0-471D-B28A-6458FCCCE72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F37AE27-B043-4B2F-8484-2085364402C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nota" sheetId="1" r:id="rId1"/>
+    <sheet name="Grupos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>Critério</t>
   </si>
@@ -28,12 +42,6 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>Pontuação Máxima</t>
-  </si>
-  <si>
-    <t>Pontuação Obtida</t>
-  </si>
-  <si>
     <t>Estrutura HTML</t>
   </si>
   <si>
@@ -92,13 +100,196 @@
   </si>
   <si>
     <t>Estrutura de banco criada corretamente (chave primária, tipos adequados, relacionamento se houver).</t>
+  </si>
+  <si>
+    <t>Grupo 1</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
+  </si>
+  <si>
+    <t>Grupo 3</t>
+  </si>
+  <si>
+    <t>Grupo 4</t>
+  </si>
+  <si>
+    <t>Grupo 5</t>
+  </si>
+  <si>
+    <t>Grupo 6</t>
+  </si>
+  <si>
+    <t>Grupo 7</t>
+  </si>
+  <si>
+    <t>Grupo 8</t>
+  </si>
+  <si>
+    <t>Grupo 9</t>
+  </si>
+  <si>
+    <t>Grupo 10</t>
+  </si>
+  <si>
+    <t>Pontuação Grupo</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Integrante 1</t>
+  </si>
+  <si>
+    <t>Integrante 2</t>
+  </si>
+  <si>
+    <t>Integrante 3</t>
+  </si>
+  <si>
+    <t>Integrante 4</t>
+  </si>
+  <si>
+    <t>Integrante 5</t>
+  </si>
+  <si>
+    <t>Integrante 6</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Gulherme Pereira</t>
+  </si>
+  <si>
+    <t>Camilly Santos</t>
+  </si>
+  <si>
+    <t>Sophia Luna</t>
+  </si>
+  <si>
+    <t>Lista de tarefas</t>
+  </si>
+  <si>
+    <t>Airton Siqueira</t>
+  </si>
+  <si>
+    <t>Regilson Azevedo</t>
+  </si>
+  <si>
+    <t>Tiago Godoy</t>
+  </si>
+  <si>
+    <t>Vitor Lusni</t>
+  </si>
+  <si>
+    <t>Biblioteca</t>
+  </si>
+  <si>
+    <t>Wendel Ferreira</t>
+  </si>
+  <si>
+    <t>Henrique Guido</t>
+  </si>
+  <si>
+    <t>Luiz Gustavo</t>
+  </si>
+  <si>
+    <t>Breno Vilches</t>
+  </si>
+  <si>
+    <t>Leonardo Ryan</t>
+  </si>
+  <si>
+    <t>Matheus Catapane</t>
+  </si>
+  <si>
+    <t>Coleta de Informação - IBGE</t>
+  </si>
+  <si>
+    <t>Dhiogo Cossi</t>
+  </si>
+  <si>
+    <t>Breno Henrique</t>
+  </si>
+  <si>
+    <t>Wendell Henrique</t>
+  </si>
+  <si>
+    <t>Fabricio Rufino</t>
+  </si>
+  <si>
+    <t>Locação de veiculos</t>
+  </si>
+  <si>
+    <t>Estefani Bianca</t>
+  </si>
+  <si>
+    <t>João Pedro R</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Sistema de lavanderia</t>
+  </si>
+  <si>
+    <t>Luiz Carlos</t>
+  </si>
+  <si>
+    <t>Gabriel Borovina</t>
+  </si>
+  <si>
+    <t>Henrique Merlini</t>
+  </si>
+  <si>
+    <t>Nathan Brito</t>
+  </si>
+  <si>
+    <t>Cadastro de jogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Cordeiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Victor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus Vinicius </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluguel de instrumentos musicais </t>
+  </si>
+  <si>
+    <t>Welinton</t>
+  </si>
+  <si>
+    <t>Sistema de Gestão de Times</t>
+  </si>
+  <si>
+    <t>Vinicius</t>
+  </si>
+  <si>
+    <t>Guilherme Amaral</t>
+  </si>
+  <si>
+    <t>Sistema de Lavagem de Veículos</t>
+  </si>
+  <si>
+    <t>Matheus Fontana</t>
+  </si>
+  <si>
+    <t>Departamento Pessoal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,23 +298,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -146,16 +366,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,154 +764,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="100" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2">
+        <f>SUM(B2:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUM(C2:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:K12" si="0">SUM(D2:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B25:K25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25867066-FC7D-41F1-BDA6-8D21B03B5528}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>